--- a/00_基盤/00_EBS基盤/TA150/T_TA150_別紙4_システム管理ガイド(Jarファイル署名手順).xlsx
+++ b/00_基盤/00_EBS基盤/TA150/T_TA150_別紙4_システム管理ガイド(Jarファイル署名手順).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\88_IaaS対応\20_設計製造フェーズ\20_新本番環境構築\05_システム管理ガイド(TA150)\25_内部レビュー指摘対象\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_18401～18500\E_本稼動_18495【基盤】EBS本番機のコードサイニング証明書更新について\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="9045" tabRatio="914" activeTab="2"/>
+    <workbookView xWindow="4005" yWindow="90" windowWidth="18315" windowHeight="9045" tabRatio="914"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'1.証明書作成'!$A$1:$M$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.証明書インポート'!$A$1:$M$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.証明書インポート'!$A$1:$M$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'3.別環境への移送(外部)'!$A$1:$M$135</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'3.別環境への移送(内部)'!$A$1:$M$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'4.その他'!$A$1:$M$34</definedName>
@@ -37,12 +37,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'3.別環境への移送(外部)'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'3.別環境への移送(内部)'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="532">
   <si>
     <t>作業(大分類)</t>
     <rPh sb="0" eb="2">
@@ -1048,9 +1048,6 @@
   </si>
   <si>
     <t>Reading language and territory information from file...</t>
-  </si>
-  <si>
-    <t>Reading language information from applUS.txt ...</t>
   </si>
   <si>
     <t>Successfully created javaVersionFile.</t>
@@ -2344,31 +2341,6 @@
   </si>
   <si>
     <t xml:space="preserve">         SHA1: C4:6C:02:9C:D1:C6:6D:B0:40:53:E9:E9:2E:C7:73:BD:DA:19:35:1A</t>
-  </si>
-  <si>
-    <t>上記の通り、DigiCert社の名前が確認できれば問題無し。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>コモン名、組織名等は、こちらで入力したものは無視される模様。</t>
@@ -2595,16 +2567,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイバートラスト社(DigiCert社)</t>
-    <rPh sb="8" eb="9">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2788,22 +2750,6 @@
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSRを認証局(サイバートラスト社(DigiCert社))に送付し、申請</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キョク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソウフ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4028,43 +3974,6 @@
     <t>. /ebs/BEBSITO/BEBSITOappl/APPSBEBSITO_`hostname -s`.env</t>
   </si>
   <si>
-    <r>
-      <t>※本番は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>AP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>#1と外部AP4台</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※準本は、AP#1と外部AP2台</t>
     <rPh sb="1" eb="2">
       <t>ジュン</t>
@@ -4077,50 +3986,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>※開発機は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>CONC#3</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>※製品パッチ検証は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>AP#3</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4237,11 +4102,238 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[EBS]強化されたJARファイルの署名手順(KROWN:166886) (ドキュメントID 1768871.1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記のように出力されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出力される情報は、更新に使用する証明書によって変わるため、Certificate[n]: の owner </t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が CN="ITO EN Co., LTD."　と記述されている証明書において、"Valid from:" / "until:"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> の有効期限が、受領した証明書のものであることを確認する。</t>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCSK飯塚</t>
+    <rPh sb="4" eb="6">
+      <t>イイツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Issue4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Issue4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Enhanced Jar Signing for Oracle E-Business Suite (ドキュメントID 1591073.1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[EBS]強化されたJARファイルの署名手順(KROWN:166886) (ドキュメントID 1768871.1)</t>
+    <t>※本番は、AP#1と外部AP4台</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※製品パッチ検証は、AP#3</t>
+    <rPh sb="1" eb="3">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※開発機は、CONC#3</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サイバートラスト社(DigiCert社)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">日本レジストリサービス(JPRS) </t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_本稼動_18495対応
+・シート「証明書の仕組み」発行会社の変更
+・シート「2.証明書インポート」項番1-3において、コマンドの確認観点を変更</t>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ハッコウガイシャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CSRを認証局(</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サイバートラスト社(DigiCert社)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">日本レジストリサービス(JPRS) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)に送付し、申請</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シンセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4255,7 +4347,7 @@
     <numFmt numFmtId="178" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="74">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4739,13 +4831,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -4765,6 +4850,21 @@
       <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="31">
@@ -5461,7 +5561,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6110,50 +6210,47 @@
     <xf numFmtId="0" fontId="65" fillId="30" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7162,11 +7259,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3354428</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>74547</xdr:rowOff>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>372718</xdr:colOff>
+      <xdr:colOff>815788</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>136423</xdr:rowOff>
     </xdr:to>
@@ -7177,8 +7274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4017037" y="248482"/>
-          <a:ext cx="960811" cy="235811"/>
+          <a:off x="3946099" y="242047"/>
+          <a:ext cx="1011383" cy="235035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7934,9 +8031,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -8030,29 +8125,29 @@
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1">
       <c r="A9" s="75"/>
-      <c r="B9" s="243" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
+      <c r="B9" s="242" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
     </row>
     <row r="10" spans="1:9" ht="28.5">
       <c r="A10" s="80"/>
-      <c r="B10" s="243" t="s">
-        <v>398</v>
-      </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="243"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
+      <c r="B10" s="242" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="75"/>
@@ -8265,10 +8360,10 @@
         <v>17</v>
       </c>
       <c r="C30" s="86"/>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="244"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="76"/>
       <c r="G30" s="76"/>
       <c r="H30" s="76"/>
@@ -8291,10 +8386,10 @@
         <v>18</v>
       </c>
       <c r="C32" s="87"/>
-      <c r="D32" s="245">
+      <c r="D32" s="244">
         <v>42622</v>
       </c>
-      <c r="E32" s="246"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="84"/>
       <c r="G32" s="84"/>
       <c r="H32" s="84"/>
@@ -8317,11 +8412,11 @@
         <v>19</v>
       </c>
       <c r="C34" s="87"/>
-      <c r="D34" s="247">
-        <f>文書管理!C12</f>
-        <v>44732</v>
-      </c>
-      <c r="E34" s="248"/>
+      <c r="D34" s="246">
+        <f>MAX(文書管理!$C$10:$C$20)</f>
+        <v>44817</v>
+      </c>
+      <c r="E34" s="247"/>
       <c r="F34" s="84"/>
       <c r="G34" s="84"/>
       <c r="H34" s="84"/>
@@ -8332,9 +8427,9 @@
       <c r="B35" s="76"/>
       <c r="C35" s="84"/>
       <c r="D35" s="83"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="242"/>
+      <c r="E35" s="241"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="241"/>
       <c r="H35" s="85"/>
       <c r="I35" s="81"/>
     </row>
@@ -8344,11 +8439,11 @@
         <v>20</v>
       </c>
       <c r="C36" s="87"/>
-      <c r="D36" s="241" t="str">
-        <f>文書管理!E12</f>
-        <v>Issue3.0</v>
-      </c>
-      <c r="E36" s="241"/>
+      <c r="D36" s="240" t="str">
+        <f>VLOOKUP(表紙!D34,文書管理!$C$10:$E$20,3)</f>
+        <v>Issue4.0</v>
+      </c>
+      <c r="E36" s="240"/>
       <c r="F36" s="83"/>
       <c r="G36" s="83"/>
       <c r="H36" s="83"/>
@@ -8378,15 +8473,15 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="114" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="114" customWidth="1"/>
@@ -8456,7 +8551,7 @@
     </row>
     <row r="3" spans="1:14" s="148" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="151" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
@@ -8477,26 +8572,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">IF(B4="",IF(D4="","",IF(LEFT(D4)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
@@ -8519,7 +8614,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="15"/>
       <c r="G5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
@@ -8548,7 +8643,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
@@ -8574,7 +8669,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K7" s="112"/>
       <c r="L7" s="112"/>
@@ -8600,7 +8695,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="J8" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K8" s="112"/>
       <c r="L8" s="112"/>
@@ -8626,7 +8721,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
       <c r="J9" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K9" s="112"/>
       <c r="L9" s="112"/>
@@ -8652,7 +8747,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
       <c r="J10" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
@@ -8678,7 +8773,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
@@ -8704,7 +8799,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K12" s="112"/>
       <c r="L12" s="112"/>
@@ -8730,7 +8825,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K13" s="112"/>
       <c r="L13" s="112"/>
@@ -8756,7 +8851,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="J14" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K14" s="112"/>
       <c r="L14" s="112"/>
@@ -8782,7 +8877,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
       <c r="J15" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15" s="112"/>
       <c r="L15" s="112"/>
@@ -8845,28 +8940,28 @@
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="9">
         <f ca="1">IF(B18="",IF(D18="","",IF(LEFT(D18)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v>1</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="14"/>
@@ -8892,7 +8987,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
       <c r="J19" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K19" s="112"/>
       <c r="L19" s="112"/>
@@ -8942,7 +9037,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
       <c r="J21" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K21" s="112"/>
       <c r="L21" s="112"/>
@@ -8992,7 +9087,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K23" s="112"/>
       <c r="L23" s="112"/>
@@ -9041,10 +9136,10 @@
       <c r="G25" s="29"/>
       <c r="H25" s="17"/>
       <c r="I25" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K25" s="112"/>
       <c r="L25" s="112"/>
@@ -9070,7 +9165,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
       <c r="J26" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -9120,7 +9215,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
       <c r="J28" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K28" s="112"/>
       <c r="L28" s="112"/>
@@ -9170,7 +9265,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
       <c r="J30" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K30" s="112"/>
       <c r="L30" s="112"/>
@@ -9244,7 +9339,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
       <c r="J33" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K33" s="112"/>
       <c r="L33" s="112"/>
@@ -9291,14 +9386,12 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
@@ -9398,34 +9491,42 @@
         <v>43353</v>
       </c>
       <c r="D11" s="213" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" s="214" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="215" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="96">
+      <c r="C12" s="98">
+        <v>44732</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="100" t="s">
         <v>428</v>
       </c>
-      <c r="E11" s="214" t="s">
-        <v>401</v>
-      </c>
-      <c r="F11" s="215" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="96">
-      <c r="C12" s="216">
-        <v>44732</v>
-      </c>
-      <c r="D12" s="217" t="s">
-        <v>431</v>
-      </c>
-      <c r="E12" s="218" t="s">
-        <v>432</v>
-      </c>
-      <c r="F12" s="219" t="s">
+      <c r="F12" s="101" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48">
+      <c r="C13" s="216">
+        <v>44817</v>
+      </c>
+      <c r="D13" s="217" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
+      <c r="E13" s="218" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="219" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1">
       <c r="C14" s="98"/>
@@ -9477,23 +9578,22 @@
   </sheetPr>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="232" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="226" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9501,14 +9601,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="232" customFormat="1">
-      <c r="B5" s="235" t="s">
-        <v>510</v>
-      </c>
-      <c r="D5" s="236">
+    <row r="5" spans="1:6" s="226" customFormat="1">
+      <c r="B5" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" s="232">
         <v>44581</v>
       </c>
-      <c r="F5" s="237"/>
+      <c r="F5" s="231"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="139"/>
@@ -9518,10 +9618,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B8" s="137" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9533,26 +9633,26 @@
       <c r="B10" s="139"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="235" t="s">
-        <v>510</v>
-      </c>
-      <c r="D11" s="236">
+      <c r="B11" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" s="232">
         <v>43921</v>
       </c>
-      <c r="F11" s="237"/>
+      <c r="F11" s="231"/>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="D12" s="240"/>
+      <c r="D12" s="229"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="137"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B14" s="137" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9561,235 +9661,269 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="235" t="s">
-        <v>510</v>
-      </c>
-      <c r="D17" s="236">
+      <c r="B17" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" s="232">
         <v>43732</v>
       </c>
-      <c r="F17" s="237"/>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="227"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="232" t="s">
+      <c r="A20" s="233" t="s">
+        <v>507</v>
+      </c>
+      <c r="B20" s="234" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" s="235">
+        <v>44581</v>
+      </c>
+      <c r="F22" s="231"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="233" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" s="234"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="234"/>
+      <c r="H28" s="234"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="234"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="226"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="234"/>
+      <c r="B30" s="233" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="226"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="234"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="236" t="s">
+        <v>511</v>
+      </c>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236" t="s">
+        <v>512</v>
+      </c>
+      <c r="F31" s="236"/>
+      <c r="G31" s="236"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="226"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="234"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="233" t="s">
+        <v>493</v>
+      </c>
+      <c r="D32" s="233"/>
+      <c r="E32" s="233" t="s">
+        <v>495</v>
+      </c>
+      <c r="F32" s="233"/>
+      <c r="G32" s="233" t="s">
+        <v>496</v>
+      </c>
+      <c r="H32" s="233"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="226"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="234"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233" t="s">
+        <v>497</v>
+      </c>
+      <c r="F33" s="233"/>
+      <c r="G33" s="233" t="s">
+        <v>498</v>
+      </c>
+      <c r="H33" s="233"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="226"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="234"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233" t="s">
+        <v>499</v>
+      </c>
+      <c r="F34" s="233"/>
+      <c r="G34" s="233" t="s">
+        <v>500</v>
+      </c>
+      <c r="H34" s="233"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="226"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="234"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="233"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="234"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="233" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="233"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="233"/>
+      <c r="G36" s="233"/>
+      <c r="H36" s="233"/>
+      <c r="I36" s="226"/>
+      <c r="J36" s="226"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="234"/>
+      <c r="B37" s="233"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="233"/>
+      <c r="F37" s="233"/>
+      <c r="G37" s="233"/>
+      <c r="H37" s="233"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="226"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="234"/>
+      <c r="B38" s="233" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="226"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="234"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="236" t="s">
+        <v>513</v>
+      </c>
+      <c r="D39" s="236"/>
+      <c r="E39" s="236" t="s">
         <v>514</v>
       </c>
-      <c r="B20" s="237" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="235" t="s">
-        <v>510</v>
-      </c>
-      <c r="D22" s="238">
-        <v>44581</v>
-      </c>
-      <c r="F22" s="237"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="232" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="C29" s="232"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="232"/>
-      <c r="G29" s="232"/>
-      <c r="H29" s="232"/>
-      <c r="I29" s="232"/>
-      <c r="J29" s="232"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="232" t="s">
+      <c r="F39" s="236"/>
+      <c r="G39" s="236"/>
+      <c r="H39" s="236"/>
+      <c r="I39" s="228"/>
+      <c r="J39" s="226"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="234"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="233" t="s">
+        <v>486</v>
+      </c>
+      <c r="D40" s="233"/>
+      <c r="E40" s="233" t="s">
         <v>488</v>
       </c>
-      <c r="C30" s="232"/>
-      <c r="E30" s="232"/>
-      <c r="F30" s="232"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="232"/>
-      <c r="I30" s="232"/>
-      <c r="J30" s="232"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="232"/>
-      <c r="C31" s="239" t="s">
-        <v>518</v>
-      </c>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239" t="s">
-        <v>519</v>
-      </c>
-      <c r="F31" s="239"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="232"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="232"/>
-      <c r="C32" s="232" t="s">
-        <v>497</v>
-      </c>
-      <c r="E32" s="232" t="s">
-        <v>499</v>
-      </c>
-      <c r="F32" s="232"/>
-      <c r="G32" s="232" t="s">
-        <v>500</v>
-      </c>
-      <c r="H32" s="232"/>
-      <c r="I32" s="232"/>
-      <c r="J32" s="232"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="232"/>
-      <c r="C33" s="232"/>
-      <c r="E33" s="232" t="s">
-        <v>501</v>
-      </c>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232" t="s">
-        <v>502</v>
-      </c>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="232"/>
-      <c r="C34" s="232"/>
-      <c r="E34" s="232" t="s">
-        <v>503</v>
-      </c>
-      <c r="F34" s="232"/>
-      <c r="G34" s="232" t="s">
-        <v>504</v>
-      </c>
-      <c r="H34" s="232"/>
-      <c r="I34" s="232"/>
-      <c r="J34" s="232"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="232"/>
-      <c r="C35" s="232"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="232"/>
-      <c r="G35" s="232"/>
-      <c r="H35" s="232"/>
-      <c r="I35" s="232"/>
-      <c r="J35" s="232"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="232"/>
-      <c r="C36" s="232" t="s">
-        <v>498</v>
-      </c>
-      <c r="E36" s="232"/>
-      <c r="F36" s="232"/>
-      <c r="G36" s="232"/>
-      <c r="H36" s="232"/>
-      <c r="I36" s="232"/>
-      <c r="J36" s="232"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="232"/>
-      <c r="C37" s="232"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="232"/>
-      <c r="G37" s="232"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="232"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="232" t="s">
+      <c r="F40" s="233"/>
+      <c r="G40" s="233" t="s">
+        <v>487</v>
+      </c>
+      <c r="H40" s="233"/>
+      <c r="J40" s="226"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="234"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
+      <c r="E41" s="233" t="s">
+        <v>490</v>
+      </c>
+      <c r="F41" s="233"/>
+      <c r="G41" s="233" t="s">
         <v>489</v>
       </c>
-      <c r="C38" s="232"/>
-      <c r="E38" s="232"/>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="232"/>
-      <c r="J38" s="232"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="232"/>
-      <c r="C39" s="239" t="s">
-        <v>520</v>
-      </c>
-      <c r="D39" s="239"/>
-      <c r="E39" s="239" t="s">
-        <v>521</v>
-      </c>
-      <c r="F39" s="239"/>
-      <c r="G39" s="239"/>
-      <c r="H39" s="239"/>
-      <c r="I39" s="239"/>
-      <c r="J39" s="232"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="232"/>
-      <c r="C40" s="232" t="s">
-        <v>490</v>
-      </c>
-      <c r="E40" s="232" t="s">
+      <c r="H41" s="233"/>
+      <c r="J41" s="226"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="234"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="233" t="s">
         <v>492</v>
       </c>
-      <c r="F40" s="232"/>
-      <c r="G40" s="232" t="s">
+      <c r="F42" s="233"/>
+      <c r="G42" s="233" t="s">
         <v>491</v>
       </c>
-      <c r="H40" s="232"/>
-      <c r="J40" s="232"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="232"/>
-      <c r="C41" s="232"/>
-      <c r="E41" s="232" t="s">
-        <v>494</v>
-      </c>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232" t="s">
-        <v>493</v>
-      </c>
-      <c r="H41" s="232"/>
-      <c r="J41" s="232"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="232"/>
-      <c r="C42" s="232"/>
-      <c r="E42" s="232" t="s">
-        <v>496</v>
-      </c>
-      <c r="F42" s="232"/>
-      <c r="G42" s="232" t="s">
-        <v>495</v>
-      </c>
-      <c r="H42" s="232"/>
-      <c r="J42" s="232"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="232"/>
-      <c r="C43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
+      <c r="H42" s="233"/>
+      <c r="J42" s="226"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="226"/>
+      <c r="C43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="226"/>
+      <c r="J43" s="226"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9800,9 +9934,7 @@
   </sheetPr>
   <dimension ref="B16:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -9838,62 +9970,62 @@
       <c r="B22" s="137"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="249" t="s">
-        <v>318</v>
-      </c>
-      <c r="C41" s="249"/>
-      <c r="D41" s="250" t="s">
-        <v>319</v>
-      </c>
-      <c r="E41" s="251"/>
-      <c r="F41" s="251"/>
-      <c r="G41" s="251"/>
-      <c r="H41" s="252"/>
+      <c r="B41" s="248" t="s">
+        <v>316</v>
+      </c>
+      <c r="C41" s="248"/>
+      <c r="D41" s="249" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="250"/>
+      <c r="H41" s="251"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="155" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C42" s="155" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D42" s="158" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E42" s="158" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F42" s="158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G42" s="158" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H42" s="158" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="27">
       <c r="B43" s="174" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C43" s="175" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D43" s="164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E43" s="164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F43" s="157" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G43" s="168" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H43" s="163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="27">
@@ -9902,108 +10034,108 @@
       <c r="D44" s="166"/>
       <c r="E44" s="166"/>
       <c r="F44" s="157" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G44" s="168" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H44" s="163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="27">
       <c r="B45" s="169" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C45" s="170" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D45" s="164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E45" s="164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F45" s="157" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G45" s="168" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H45" s="163" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="29.45" customHeight="1">
       <c r="B46" s="169"/>
       <c r="C46" s="170"/>
       <c r="D46" s="166"/>
       <c r="E46" s="166"/>
       <c r="F46" s="157" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" s="157" t="s">
-        <v>348</v>
+        <v>330</v>
+      </c>
+      <c r="G46" s="168" t="s">
+        <v>531</v>
       </c>
       <c r="H46" s="157" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="27">
       <c r="B47" s="169"/>
       <c r="C47" s="170"/>
       <c r="D47" s="157" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E47" s="157" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F47" s="157" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G47" s="157" t="s">
-        <v>354</v>
-      </c>
-      <c r="H47" s="157" t="s">
-        <v>334</v>
+        <v>350</v>
+      </c>
+      <c r="H47" s="239" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="169"/>
       <c r="C48" s="170"/>
       <c r="D48" s="157" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E48" s="157" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F48" s="157" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G48" s="171" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H48" s="157" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="169"/>
       <c r="C49" s="170"/>
       <c r="D49" s="164" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E49" s="164" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F49" s="157" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" s="171" t="s">
+        <v>365</v>
+      </c>
+      <c r="H49" s="157" t="s">
         <v>361</v>
-      </c>
-      <c r="G49" s="171" t="s">
-        <v>369</v>
-      </c>
-      <c r="H49" s="157" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -10012,13 +10144,13 @@
       <c r="D50" s="170"/>
       <c r="E50" s="170"/>
       <c r="F50" s="157" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" s="171" t="s">
+        <v>366</v>
+      </c>
+      <c r="H50" s="157" t="s">
         <v>362</v>
-      </c>
-      <c r="G50" s="171" t="s">
-        <v>370</v>
-      </c>
-      <c r="H50" s="157" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -10027,36 +10159,36 @@
       <c r="D51" s="166"/>
       <c r="E51" s="166"/>
       <c r="F51" s="157" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" s="171" t="s">
         <v>364</v>
       </c>
-      <c r="G51" s="171" t="s">
-        <v>368</v>
-      </c>
       <c r="H51" s="157" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="156" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C52" s="157" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D52" s="157" t="s">
+        <v>377</v>
+      </c>
+      <c r="E52" s="157" t="s">
+        <v>379</v>
+      </c>
+      <c r="F52" s="157" t="s">
+        <v>378</v>
+      </c>
+      <c r="G52" s="171" t="s">
+        <v>380</v>
+      </c>
+      <c r="H52" s="157" t="s">
         <v>381</v>
-      </c>
-      <c r="E52" s="157" t="s">
-        <v>383</v>
-      </c>
-      <c r="F52" s="157" t="s">
-        <v>382</v>
-      </c>
-      <c r="G52" s="171" t="s">
-        <v>384</v>
-      </c>
-      <c r="H52" s="157" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -10078,11 +10210,9 @@
   </sheetPr>
   <dimension ref="A3:K167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="1.625" style="39" customWidth="1"/>
     <col min="3" max="5" width="4.125" style="39" customWidth="1"/>
@@ -10372,7 +10502,7 @@
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -10399,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" s="67">
         <v>1</v>
@@ -10467,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10499,7 +10629,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10591,7 +10721,7 @@
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -10621,7 +10751,7 @@
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
@@ -10651,7 +10781,7 @@
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
@@ -10681,7 +10811,7 @@
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
@@ -10702,19 +10832,19 @@
       <c r="E42" s="71"/>
       <c r="F42" s="127"/>
       <c r="G42" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H42" s="67">
         <v>1</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J42" s="68">
         <v>1</v>
       </c>
       <c r="K42" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10744,7 +10874,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="66" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10774,7 +10904,7 @@
         <v>3</v>
       </c>
       <c r="K46" s="66" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10857,19 +10987,19 @@
       <c r="E52" s="42"/>
       <c r="F52" s="42"/>
       <c r="G52" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H52" s="67">
         <v>2</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J52" s="68">
         <v>1</v>
       </c>
       <c r="K52" s="68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10899,7 +11029,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10929,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="K56" s="66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -10959,7 +11089,7 @@
         <v>4</v>
       </c>
       <c r="K58" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -11051,7 +11181,7 @@
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="63" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
@@ -11081,7 +11211,7 @@
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="59" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
@@ -11111,7 +11241,7 @@
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="59" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
@@ -11141,7 +11271,7 @@
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="59" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
@@ -11273,7 +11403,7 @@
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
@@ -11288,7 +11418,7 @@
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
@@ -11721,19 +11851,19 @@
       <c r="E110" s="71"/>
       <c r="F110" s="127"/>
       <c r="G110" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H110" s="67">
         <v>1</v>
       </c>
       <c r="I110" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J110" s="68">
         <v>1</v>
       </c>
       <c r="K110" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -11763,13 +11893,13 @@
         <v>2</v>
       </c>
       <c r="I112" s="68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J112" s="68">
         <v>1</v>
       </c>
       <c r="K112" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12020,25 +12150,25 @@
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D130" s="42"/>
       <c r="E130" s="42"/>
       <c r="F130" s="42"/>
       <c r="G130" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H130" s="67">
         <v>1</v>
       </c>
       <c r="I130" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J130" s="68">
         <v>1</v>
       </c>
       <c r="K130" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12058,7 +12188,7 @@
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D132" s="71"/>
       <c r="E132" s="71"/>
@@ -12070,7 +12200,7 @@
         <v>2</v>
       </c>
       <c r="K132" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12100,7 +12230,7 @@
         <v>3</v>
       </c>
       <c r="K134" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12130,7 +12260,7 @@
         <v>4</v>
       </c>
       <c r="K136" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12150,7 +12280,7 @@
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D138" s="57"/>
       <c r="E138" s="57"/>
@@ -12165,7 +12295,7 @@
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D139" s="60"/>
       <c r="E139" s="60"/>
@@ -12180,25 +12310,25 @@
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D140" s="71"/>
       <c r="E140" s="71"/>
       <c r="F140" s="127"/>
       <c r="G140" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H140" s="67">
         <v>2</v>
       </c>
       <c r="I140" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J140" s="68">
         <v>1</v>
       </c>
       <c r="K140" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12228,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="K142" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12258,7 +12388,7 @@
         <v>3</v>
       </c>
       <c r="K144" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12288,7 +12418,7 @@
         <v>4</v>
       </c>
       <c r="K146" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:11" s="69" customFormat="1" ht="13.5" customHeight="1">
@@ -12308,7 +12438,7 @@
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D148" s="57"/>
       <c r="E148" s="57"/>
@@ -12323,7 +12453,7 @@
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D149" s="60"/>
       <c r="E149" s="60"/>
@@ -12604,14 +12734,14 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="114" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="114" customWidth="1"/>
@@ -12681,7 +12811,7 @@
     </row>
     <row r="3" spans="1:15" s="148" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="151" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B3" s="152"/>
       <c r="C3" s="152"/>
@@ -12696,7 +12826,7 @@
       <c r="L3" s="152"/>
       <c r="M3" s="153"/>
       <c r="O3" s="114" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -12712,13 +12842,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="226" t="s">
-        <v>481</v>
-      </c>
-      <c r="F4" s="227" t="s">
-        <v>471</v>
+        <v>351</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>15</v>
@@ -12727,8 +12857,8 @@
       <c r="I4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="228" t="s">
-        <v>466</v>
+      <c r="J4" s="12" t="s">
+        <v>462</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
@@ -12737,7 +12867,7 @@
         <v/>
       </c>
       <c r="O4" s="114" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -12759,7 +12889,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K5" s="112"/>
       <c r="L5" s="112"/>
@@ -12787,7 +12917,7 @@
         <v>52</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
@@ -12815,7 +12945,7 @@
         <v>52</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K7" s="112"/>
       <c r="L7" s="112"/>
@@ -12843,7 +12973,7 @@
         <v>52</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" s="112"/>
       <c r="L8" s="112"/>
@@ -12871,7 +13001,7 @@
         <v>52</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K9" s="112"/>
       <c r="L9" s="112"/>
@@ -12917,11 +13047,11 @@
       <c r="D11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="226" t="s">
-        <v>473</v>
-      </c>
-      <c r="F11" s="227" t="s">
-        <v>472</v>
+      <c r="E11" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>15</v>
@@ -12930,8 +13060,8 @@
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="228" t="s">
-        <v>466</v>
+      <c r="J11" s="12" t="s">
+        <v>462</v>
       </c>
       <c r="K11" s="120"/>
       <c r="L11" s="120"/>
@@ -12940,7 +13070,7 @@
         <v/>
       </c>
       <c r="O11" s="114" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -12992,7 +13122,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K13" s="119"/>
       <c r="L13" s="119"/>
@@ -13018,7 +13148,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="J14" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K14" s="119"/>
       <c r="L14" s="119"/>
@@ -13044,7 +13174,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
       <c r="J15" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K15" s="119"/>
       <c r="L15" s="119"/>
@@ -13070,7 +13200,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
       <c r="J16" s="161" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
@@ -13472,7 +13602,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
       <c r="J32" s="35" t="s">
-        <v>127</v>
+        <v>521</v>
       </c>
       <c r="K32" s="119"/>
       <c r="L32" s="119"/>
@@ -13522,7 +13652,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
       <c r="J34" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K34" s="119"/>
       <c r="L34" s="119"/>
@@ -13572,7 +13702,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="18"/>
       <c r="J36" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" s="119"/>
       <c r="L36" s="119"/>
@@ -13622,7 +13752,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="18"/>
       <c r="J38" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K38" s="119"/>
       <c r="L38" s="119"/>
@@ -13672,7 +13802,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="18"/>
       <c r="J40" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K40" s="119"/>
       <c r="L40" s="119"/>
@@ -13722,7 +13852,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="18"/>
       <c r="J42" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K42" s="119"/>
       <c r="L42" s="119"/>
@@ -13748,7 +13878,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="18"/>
       <c r="J43" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K43" s="119"/>
       <c r="L43" s="119"/>
@@ -13798,7 +13928,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="18"/>
       <c r="J45" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K45" s="119"/>
       <c r="L45" s="119"/>
@@ -13824,7 +13954,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="18"/>
       <c r="J46" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K46" s="119"/>
       <c r="L46" s="119"/>
@@ -13874,7 +14004,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="18"/>
       <c r="J48" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K48" s="119"/>
       <c r="L48" s="119"/>
@@ -13900,7 +14030,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="18"/>
       <c r="J49" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K49" s="119"/>
       <c r="L49" s="119"/>
@@ -13950,7 +14080,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="18"/>
       <c r="J51" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K51" s="119"/>
       <c r="L51" s="119"/>
@@ -13976,7 +14106,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="18"/>
       <c r="J52" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K52" s="119"/>
       <c r="L52" s="119"/>
@@ -14026,7 +14156,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="18"/>
       <c r="J54" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" s="119"/>
       <c r="L54" s="119"/>
@@ -14052,7 +14182,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="18"/>
       <c r="J55" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K55" s="119"/>
       <c r="L55" s="119"/>
@@ -14078,7 +14208,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="18"/>
       <c r="J56" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K56" s="119"/>
       <c r="L56" s="119"/>
@@ -14104,7 +14234,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="18"/>
       <c r="J57" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K57" s="119"/>
       <c r="L57" s="119"/>
@@ -14130,7 +14260,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="18"/>
       <c r="J58" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K58" s="119"/>
       <c r="L58" s="119"/>
@@ -14180,7 +14310,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="18"/>
       <c r="J60" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K60" s="119"/>
       <c r="L60" s="119"/>
@@ -14206,7 +14336,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="18"/>
       <c r="J61" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K61" s="119"/>
       <c r="L61" s="119"/>
@@ -14232,7 +14362,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="18"/>
       <c r="J62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K62" s="119"/>
       <c r="L62" s="119"/>
@@ -14258,7 +14388,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="18"/>
       <c r="J63" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K63" s="119"/>
       <c r="L63" s="119"/>
@@ -14284,7 +14414,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="18"/>
       <c r="J64" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K64" s="119"/>
       <c r="L64" s="119"/>
@@ -14334,7 +14464,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="18"/>
       <c r="J66" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K66" s="119"/>
       <c r="L66" s="119"/>
@@ -14360,7 +14490,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="18"/>
       <c r="J67" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K67" s="119"/>
       <c r="L67" s="119"/>
@@ -14386,7 +14516,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="18"/>
       <c r="J68" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K68" s="119"/>
       <c r="L68" s="119"/>
@@ -14460,7 +14590,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="18"/>
       <c r="J71" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K71" s="119"/>
       <c r="L71" s="119"/>
@@ -14509,10 +14639,10 @@
       <c r="G73" s="107"/>
       <c r="H73" s="17"/>
       <c r="I73" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K73" s="119"/>
       <c r="L73" s="119"/>
@@ -14538,7 +14668,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="18"/>
       <c r="J74" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K74" s="119"/>
       <c r="L74" s="119"/>
@@ -14564,7 +14694,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="18"/>
       <c r="J75" s="162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K75" s="119"/>
       <c r="L75" s="119"/>
@@ -14614,7 +14744,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="18"/>
       <c r="J77" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K77" s="119"/>
       <c r="L77" s="119"/>
@@ -14640,7 +14770,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="18"/>
       <c r="J78" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K78" s="119"/>
       <c r="L78" s="119"/>
@@ -14690,7 +14820,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="18"/>
       <c r="J80" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K80" s="119"/>
       <c r="L80" s="119"/>
@@ -14740,7 +14870,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="18"/>
       <c r="J82" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K82" s="119"/>
       <c r="L82" s="119"/>
@@ -14766,7 +14896,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="18"/>
       <c r="J83" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K83" s="119"/>
       <c r="L83" s="119"/>
@@ -14792,7 +14922,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="18"/>
       <c r="J84" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K84" s="119"/>
       <c r="L84" s="119"/>
@@ -14818,7 +14948,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="18"/>
       <c r="J85" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K85" s="119"/>
       <c r="L85" s="119"/>
@@ -14844,7 +14974,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="18"/>
       <c r="J86" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K86" s="119"/>
       <c r="L86" s="119"/>
@@ -14870,7 +15000,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="18"/>
       <c r="J87" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K87" s="119"/>
       <c r="L87" s="119"/>
@@ -14896,7 +15026,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="18"/>
       <c r="J88" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K88" s="119"/>
       <c r="L88" s="119"/>
@@ -14922,7 +15052,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="18"/>
       <c r="J89" s="35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K89" s="119"/>
       <c r="L89" s="119"/>
@@ -14948,7 +15078,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="18"/>
       <c r="J90" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K90" s="119"/>
       <c r="L90" s="119"/>
@@ -14974,7 +15104,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="18"/>
       <c r="J91" s="35" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K91" s="119"/>
       <c r="L91" s="119"/>
@@ -15000,7 +15130,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="18"/>
       <c r="J92" s="35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K92" s="119"/>
       <c r="L92" s="119"/>
@@ -15026,7 +15156,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="18"/>
       <c r="J93" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K93" s="119"/>
       <c r="L93" s="119"/>
@@ -15100,7 +15230,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="18"/>
       <c r="J96" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K96" s="119"/>
       <c r="L96" s="119"/>
@@ -15126,7 +15256,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="18"/>
       <c r="J97" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K97" s="119"/>
       <c r="L97" s="119"/>
@@ -15176,7 +15306,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="18"/>
       <c r="J99" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K99" s="119"/>
       <c r="L99" s="119"/>
@@ -15244,13 +15374,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E102" s="226" t="s">
-        <v>474</v>
-      </c>
-      <c r="F102" s="227" t="s">
-        <v>475</v>
+        <v>328</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="G102" s="106" t="s">
         <v>15</v>
@@ -15259,8 +15389,8 @@
       <c r="I102" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="228" t="s">
-        <v>467</v>
+      <c r="J102" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="K102" s="120"/>
       <c r="L102" s="120"/>
@@ -15269,7 +15399,7 @@
         <v/>
       </c>
       <c r="O102" s="114" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="22.5">
@@ -15291,7 +15421,7 @@
         <v>42</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K103" s="119"/>
       <c r="L103" s="119"/>
@@ -15317,7 +15447,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="18"/>
       <c r="J104" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K104" s="119"/>
       <c r="L104" s="119"/>
@@ -15343,7 +15473,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="18"/>
       <c r="J105" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K105" s="119"/>
       <c r="L105" s="119"/>
@@ -15369,7 +15499,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="18"/>
       <c r="J106" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K106" s="119"/>
       <c r="L106" s="119"/>
@@ -15394,10 +15524,10 @@
       <c r="G107" s="107"/>
       <c r="H107" s="17"/>
       <c r="I107" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J107" s="132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K107" s="119"/>
       <c r="L107" s="119"/>
@@ -15449,7 +15579,7 @@
       <c r="H109" s="17"/>
       <c r="I109" s="18"/>
       <c r="J109" s="162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K109" s="119"/>
       <c r="L109" s="119"/>
@@ -15498,10 +15628,10 @@
       <c r="G111" s="107"/>
       <c r="H111" s="17"/>
       <c r="I111" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J111" s="221" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K111" s="119"/>
       <c r="L111" s="119"/>
@@ -15527,7 +15657,7 @@
       <c r="H112" s="17"/>
       <c r="I112" s="18"/>
       <c r="J112" s="108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K112" s="119"/>
       <c r="L112" s="119"/>
@@ -15571,7 +15701,7 @@
         <v>4</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="7"/>
@@ -15579,7 +15709,7 @@
       <c r="H114" s="20"/>
       <c r="I114" s="11"/>
       <c r="J114" s="74" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K114" s="120"/>
       <c r="L114" s="120"/>
@@ -15625,17 +15755,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="114" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="114" customWidth="1"/>
@@ -15657,7 +15787,7 @@
       <c r="K1" s="115"/>
       <c r="L1" s="115"/>
       <c r="M1" s="116">
-        <f>SUM($M$4:$M91)</f>
+        <f>SUM($M$4:$M94)</f>
         <v>0</v>
       </c>
       <c r="N1" s="117">
@@ -15705,7 +15835,7 @@
     </row>
     <row r="3" spans="1:15" s="148" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="151" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B3" s="152"/>
       <c r="C3" s="152"/>
@@ -15720,7 +15850,7 @@
       <c r="L3" s="152"/>
       <c r="M3" s="153"/>
       <c r="O3" s="148" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -15729,33 +15859,33 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">IF(B4="",IF(D4="","",IF(LEFT(D4)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="226" t="s">
-        <v>473</v>
-      </c>
-      <c r="F4" s="227" t="s">
-        <v>471</v>
+        <v>170</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
       <c r="M4" s="124" t="str">
-        <f t="shared" ref="M4:M91" si="0">IF(K4="","",IF(L4="","",IF(L4=K4,$N$1,L4-K4)))</f>
+        <f t="shared" ref="M4:M94" si="0">IF(K4="","",IF(L4="","",IF(L4=K4,$N$1,L4-K4)))</f>
         <v/>
       </c>
     </row>
@@ -15794,13 +15924,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>15</v>
@@ -15809,8 +15939,8 @@
       <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="228" t="s">
-        <v>469</v>
+      <c r="J6" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
@@ -15819,7 +15949,7 @@
         <v/>
       </c>
       <c r="O6" s="148" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -15869,7 +15999,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
@@ -15897,7 +16027,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
@@ -15923,7 +16053,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
       <c r="J10" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
@@ -15967,13 +16097,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" s="226" t="s">
-        <v>474</v>
-      </c>
-      <c r="F12" s="227" t="s">
-        <v>472</v>
+        <v>359</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>15</v>
@@ -15982,8 +16112,8 @@
       <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="228" t="s">
-        <v>470</v>
+      <c r="J12" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="K12" s="120"/>
       <c r="L12" s="120"/>
@@ -15992,7 +16122,7 @@
         <v/>
       </c>
       <c r="O12" s="148" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16040,7 +16170,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="J14" s="154" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K14" s="119"/>
       <c r="L14" s="119"/>
@@ -16066,7 +16196,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
       <c r="J15" s="154" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K15" s="119"/>
       <c r="L15" s="119"/>
@@ -16094,7 +16224,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
@@ -16120,7 +16250,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
       <c r="J17" s="146" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K17" s="119"/>
       <c r="L17" s="119"/>
@@ -16146,7 +16276,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K18" s="119"/>
       <c r="L18" s="119"/>
@@ -16172,7 +16302,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
       <c r="J19" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K19" s="119"/>
       <c r="L19" s="119"/>
@@ -16221,10 +16351,10 @@
       <c r="G21" s="107"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K21" s="119"/>
       <c r="L21" s="119"/>
@@ -16250,7 +16380,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
       <c r="J22" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" s="119"/>
       <c r="L22" s="119"/>
@@ -16300,7 +16430,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
       <c r="J24" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K24" s="119"/>
       <c r="L24" s="119"/>
@@ -16326,7 +16456,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" s="119"/>
       <c r="L25" s="119"/>
@@ -16376,7 +16506,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
       <c r="J27" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K27" s="119"/>
       <c r="L27" s="119"/>
@@ -16426,7 +16556,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
       <c r="J29" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K29" s="119"/>
       <c r="L29" s="119"/>
@@ -16452,7 +16582,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
       <c r="J30" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K30" s="119"/>
       <c r="L30" s="119"/>
@@ -16478,7 +16608,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
       <c r="J31" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K31" s="119"/>
       <c r="L31" s="119"/>
@@ -16504,7 +16634,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
       <c r="J32" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K32" s="119"/>
       <c r="L32" s="119"/>
@@ -16530,7 +16660,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
       <c r="J33" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K33" s="119"/>
       <c r="L33" s="119"/>
@@ -16556,7 +16686,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
       <c r="J34" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K34" s="119"/>
       <c r="L34" s="119"/>
@@ -16582,7 +16712,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
       <c r="J35" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K35" s="119"/>
       <c r="L35" s="119"/>
@@ -16608,7 +16738,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="18"/>
       <c r="J36" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K36" s="119"/>
       <c r="L36" s="119"/>
@@ -16634,7 +16764,7 @@
       <c r="H37" s="17"/>
       <c r="I37" s="18"/>
       <c r="J37" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K37" s="119"/>
       <c r="L37" s="119"/>
@@ -16660,7 +16790,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="18"/>
       <c r="J38" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K38" s="119"/>
       <c r="L38" s="119"/>
@@ -16686,7 +16816,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="18"/>
       <c r="J39" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K39" s="119"/>
       <c r="L39" s="119"/>
@@ -16712,7 +16842,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="18"/>
       <c r="J40" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K40" s="119"/>
       <c r="L40" s="119"/>
@@ -16738,7 +16868,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="18"/>
       <c r="J41" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K41" s="119"/>
       <c r="L41" s="119"/>
@@ -16764,7 +16894,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="18"/>
       <c r="J42" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K42" s="119"/>
       <c r="L42" s="119"/>
@@ -16790,7 +16920,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="18"/>
       <c r="J43" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K43" s="119"/>
       <c r="L43" s="119"/>
@@ -16816,7 +16946,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="18"/>
       <c r="J44" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K44" s="119"/>
       <c r="L44" s="119"/>
@@ -16842,7 +16972,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="18"/>
       <c r="J45" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K45" s="119"/>
       <c r="L45" s="119"/>
@@ -16868,7 +16998,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="18"/>
       <c r="J46" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K46" s="119"/>
       <c r="L46" s="119"/>
@@ -16894,7 +17024,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="18"/>
       <c r="J47" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K47" s="119"/>
       <c r="L47" s="119"/>
@@ -16920,7 +17050,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="18"/>
       <c r="J48" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K48" s="119"/>
       <c r="L48" s="119"/>
@@ -16929,7 +17059,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1">
       <c r="A49" s="15" t="str">
         <f ca="1">IF(B49="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -16946,7 +17076,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="18"/>
       <c r="J49" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K49" s="119"/>
       <c r="L49" s="119"/>
@@ -16955,7 +17085,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1">
       <c r="A50" s="15" t="str">
         <f ca="1">IF(B50="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -16972,7 +17102,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="18"/>
       <c r="J50" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K50" s="119"/>
       <c r="L50" s="119"/>
@@ -16981,7 +17111,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1">
       <c r="A51" s="15" t="str">
         <f ca="1">IF(B51="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -16998,7 +17128,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="18"/>
       <c r="J51" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K51" s="119"/>
       <c r="L51" s="119"/>
@@ -17007,7 +17137,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1">
       <c r="A52" s="15" t="str">
         <f ca="1">IF(B52="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17024,7 +17154,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="18"/>
       <c r="J52" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K52" s="119"/>
       <c r="L52" s="119"/>
@@ -17033,7 +17163,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1">
       <c r="A53" s="15" t="str">
         <f ca="1">IF(B53="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17050,7 +17180,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="18"/>
       <c r="J53" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K53" s="119"/>
       <c r="L53" s="119"/>
@@ -17059,7 +17189,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1">
       <c r="A54" s="15" t="str">
         <f ca="1">IF(B54="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17076,7 +17206,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="18"/>
       <c r="J54" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K54" s="119"/>
       <c r="L54" s="119"/>
@@ -17085,7 +17215,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1">
       <c r="A55" s="15" t="str">
         <f ca="1">IF(B55="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17102,7 +17232,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="18"/>
       <c r="J55" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K55" s="119"/>
       <c r="L55" s="119"/>
@@ -17111,7 +17241,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1">
       <c r="A56" s="15" t="str">
         <f ca="1">IF(B56="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17128,7 +17258,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="18"/>
       <c r="J56" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K56" s="119"/>
       <c r="L56" s="119"/>
@@ -17137,7 +17267,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1">
       <c r="A57" s="15" t="str">
         <f ca="1">IF(B57="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17161,7 +17291,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1">
       <c r="A58" s="15" t="str">
         <f ca="1">IF(B58="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17185,7 +17315,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1">
       <c r="A59" s="15" t="str">
         <f ca="1">IF(B59="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17202,7 +17332,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="18"/>
       <c r="J59" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K59" s="119"/>
       <c r="L59" s="119"/>
@@ -17211,7 +17341,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1">
       <c r="A60" s="15" t="str">
         <f ca="1">IF(B60="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17228,7 +17358,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="18"/>
       <c r="J60" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K60" s="119"/>
       <c r="L60" s="119"/>
@@ -17237,7 +17367,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1">
       <c r="A61" s="15" t="str">
         <f ca="1">IF(B61="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17261,7 +17391,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1">
       <c r="A62" s="15" t="str">
         <f ca="1">IF(B62="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17277,8 +17407,8 @@
       <c r="G62" s="107"/>
       <c r="H62" s="17"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="32" t="s">
-        <v>311</v>
+      <c r="J62" s="161" t="s">
+        <v>517</v>
       </c>
       <c r="K62" s="119"/>
       <c r="L62" s="119"/>
@@ -17286,8 +17416,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1">
+      <c r="O62" s="148" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="12.75" customHeight="1">
       <c r="A63" s="15" t="str">
         <f ca="1">IF(B63="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17303,8 +17436,8 @@
       <c r="G63" s="107"/>
       <c r="H63" s="17"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="32" t="s">
-        <v>312</v>
+      <c r="J63" s="161" t="s">
+        <v>518</v>
       </c>
       <c r="K63" s="119"/>
       <c r="L63" s="119"/>
@@ -17312,102 +17445,66 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="15" t="str">
-        <f ca="1">IF(B64="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
-        <v/>
-      </c>
+      <c r="O63" s="148" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A64" s="15"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="16" t="str">
-        <f ca="1">IF(B64="",IF(D64="","",IF(LEFT(D64)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v/>
-      </c>
+      <c r="C64" s="16"/>
       <c r="D64" s="15"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="107"/>
       <c r="H64" s="17"/>
       <c r="I64" s="18"/>
-      <c r="J64" s="31"/>
+      <c r="J64" s="161" t="s">
+        <v>519</v>
+      </c>
       <c r="K64" s="119"/>
       <c r="L64" s="119"/>
-      <c r="M64" s="123" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="7">
-        <f ca="1">IF(B65="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
-        <v>2</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="9">
-        <f ca="1">IF(B65="",IF(D65="","",IF(LEFT(D65)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v>1</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="226" t="s">
-        <v>474</v>
-      </c>
-      <c r="F65" s="227" t="s">
-        <v>472</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J65" s="229" t="s">
-        <v>476</v>
-      </c>
-      <c r="K65" s="120"/>
-      <c r="L65" s="120"/>
-      <c r="M65" s="124" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="M64" s="123"/>
+      <c r="O64" s="148" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="161" t="s">
+        <v>520</v>
+      </c>
+      <c r="K65" s="119"/>
+      <c r="L65" s="119"/>
+      <c r="M65" s="123"/>
       <c r="O65" s="148" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="15" t="str">
-        <f ca="1">IF(B66="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
-        <v/>
-      </c>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="16" t="str">
-        <f ca="1">IF(B66="",IF(D66="","",IF(LEFT(D66)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v/>
-      </c>
+      <c r="C66" s="16"/>
       <c r="D66" s="15"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
+      <c r="G66" s="107"/>
       <c r="H66" s="17"/>
-      <c r="I66" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="161" t="s">
-        <v>477</v>
+      <c r="I66" s="18"/>
+      <c r="J66" s="32" t="s">
+        <v>310</v>
       </c>
       <c r="K66" s="119"/>
       <c r="L66" s="119"/>
-      <c r="M66" s="123" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O66" s="148" t="s">
-        <v>434</v>
-      </c>
+      <c r="M66" s="123"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="15" t="str">
@@ -17422,43 +17519,56 @@
       <c r="D67" s="15"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
+      <c r="G67" s="107"/>
       <c r="H67" s="17"/>
-      <c r="I67" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>176</v>
-      </c>
+      <c r="I67" s="18"/>
+      <c r="J67" s="31"/>
       <c r="K67" s="119"/>
       <c r="L67" s="119"/>
       <c r="M67" s="123" t="str">
-        <f t="shared" ref="M67:M68" si="6">IF(K67="","",IF(L67="","",IF(L67=K67,$N$1,L67-K67)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="15" t="str">
+      <c r="A68" s="7">
         <f ca="1">IF(B68="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
-        <v/>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="9">
         <f ca="1">IF(B68="",IF(D68="","",IF(LEFT(D68)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v/>
-      </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="119"/>
-      <c r="M68" s="123" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O68" s="148" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -17476,15 +17586,20 @@
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="17"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="22" t="s">
-        <v>177</v>
+      <c r="I69" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="32" t="s">
+        <v>473</v>
       </c>
       <c r="K69" s="119"/>
       <c r="L69" s="119"/>
       <c r="M69" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="O69" s="148" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -17502,12 +17617,16 @@
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="17"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="32"/>
+      <c r="I70" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="K70" s="119"/>
       <c r="L70" s="119"/>
       <c r="M70" s="123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M70:M71" si="6">IF(K70="","",IF(L70="","",IF(L70=K70,$N$1,L70-K70)))</f>
         <v/>
       </c>
     </row>
@@ -17516,38 +17635,23 @@
         <f ca="1">IF(B71="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="9">
+      <c r="B71" s="15"/>
+      <c r="C71" s="16" t="str">
         <f ca="1">IF(B71="",IF(D71="","",IF(LEFT(D71)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v>2</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" s="226" t="s">
-        <v>473</v>
-      </c>
-      <c r="F71" s="227" t="s">
-        <v>475</v>
-      </c>
-      <c r="G71" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="228" t="s">
-        <v>467</v>
-      </c>
-      <c r="K71" s="118"/>
-      <c r="L71" s="118"/>
-      <c r="M71" s="122" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O71" s="148" t="s">
-        <v>434</v>
+        <v/>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="119"/>
+      <c r="L71" s="119"/>
+      <c r="M71" s="123" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -17555,21 +17659,19 @@
         <f ca="1">IF(B72="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="16" t="str">
         <f ca="1">IF(B72="",IF(D72="","",IF(LEFT(D72)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D72" s="33"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="29"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="107"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
       <c r="H72" s="17"/>
-      <c r="I72" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>373</v>
+      <c r="I72" s="18"/>
+      <c r="J72" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="K72" s="119"/>
       <c r="L72" s="119"/>
@@ -17578,29 +17680,27 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1">
+    <row r="73" spans="1:15">
       <c r="A73" s="15" t="str">
         <f ca="1">IF(B73="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="16" t="str">
         <f ca="1">IF(B73="",IF(D73="","",IF(LEFT(D73)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="29"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="107"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
       <c r="H73" s="17"/>
       <c r="I73" s="18"/>
-      <c r="J73" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="119"/>
       <c r="M73" s="123" t="str">
-        <f>IF(K73="","",IF(L73="","",IF(L73=K73,$N$1,L73-K73)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -17610,22 +17710,37 @@
         <v/>
       </c>
       <c r="B74" s="28"/>
-      <c r="C74" s="16" t="str">
+      <c r="C74" s="9">
         <f ca="1">IF(B74="",IF(D74="","",IF(LEFT(D74)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v/>
-      </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="160"/>
-      <c r="H74" s="159"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="173" t="str">
-        <f t="shared" ref="M74" si="7">IF(K74="","",IF(L74="","",IF(L74=K74,$N$1,L74-K74)))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G74" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="K74" s="118"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="122" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O74" s="148" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -17638,25 +17753,25 @@
         <f ca="1">IF(B75="",IF(D75="","",IF(LEFT(D75)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D75" s="29"/>
+      <c r="D75" s="33"/>
       <c r="E75" s="29"/>
       <c r="F75" s="15"/>
-      <c r="G75" s="160"/>
-      <c r="H75" s="159"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K75" s="172"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="173" t="str">
-        <f t="shared" ref="M75:M83" si="8">IF(K75="","",IF(L75="","",IF(L75=K75,$N$1,L75-K75)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>368</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="K75" s="119"/>
+      <c r="L75" s="119"/>
+      <c r="M75" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" customHeight="1">
       <c r="A76" s="15" t="str">
         <f ca="1">IF(B76="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17666,25 +17781,23 @@
         <f ca="1">IF(B76="",IF(D76="","",IF(LEFT(D76)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D76" s="33"/>
+      <c r="D76" s="15"/>
       <c r="E76" s="29"/>
       <c r="F76" s="15"/>
       <c r="G76" s="107"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J76" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K76" s="119"/>
-      <c r="L76" s="119"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
       <c r="M76" s="123" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1">
+        <f>IF(K76="","",IF(L76="","",IF(L76=K76,$N$1,L76-K76)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="15" t="str">
         <f ca="1">IF(B77="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17694,19 +17807,17 @@
         <f ca="1">IF(B77="",IF(D77="","",IF(LEFT(D77)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D77" s="15"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="29"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="17"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="159"/>
       <c r="I77" s="18"/>
-      <c r="J77" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="123" t="str">
-        <f>IF(K77="","",IF(L77="","",IF(L77=K77,$N$1,L77-K77)))</f>
+      <c r="J77" s="19"/>
+      <c r="K77" s="172"/>
+      <c r="L77" s="172"/>
+      <c r="M77" s="173" t="str">
+        <f t="shared" ref="M77" si="7">IF(K77="","",IF(L77="","",IF(L77=K77,$N$1,L77-K77)))</f>
         <v/>
       </c>
     </row>
@@ -17720,19 +17831,21 @@
         <f ca="1">IF(B78="",IF(D78="","",IF(LEFT(D78)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D78" s="15"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="123" t="str">
-        <f>IF(K78="","",IF(L78="","",IF(L78=K78,$N$1,L78-K78)))</f>
+      <c r="G78" s="160"/>
+      <c r="H78" s="159"/>
+      <c r="I78" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K78" s="172"/>
+      <c r="L78" s="172"/>
+      <c r="M78" s="173" t="str">
+        <f t="shared" ref="M78:M86" si="8">IF(K78="","",IF(L78="","",IF(L78=K78,$N$1,L78-K78)))</f>
         <v/>
       </c>
     </row>
@@ -17746,21 +17859,25 @@
         <f ca="1">IF(B79="",IF(D79="","",IF(LEFT(D79)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D79" s="28"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="29"/>
       <c r="F79" s="15"/>
       <c r="G79" s="107"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="19"/>
+      <c r="I79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="K79" s="119"/>
       <c r="L79" s="119"/>
       <c r="M79" s="123" t="str">
-        <f t="shared" ref="M79:M80" si="9">IF(K79="","",IF(L79="","",IF(L79=K79,$N$1,L79-K79)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15" customHeight="1">
       <c r="A80" s="15" t="str">
         <f ca="1">IF(B80="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -17770,21 +17887,19 @@
         <f ca="1">IF(B80="",IF(D80="","",IF(LEFT(D80)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D80" s="28"/>
+      <c r="D80" s="15"/>
       <c r="E80" s="29"/>
       <c r="F80" s="15"/>
       <c r="G80" s="107"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="18" t="s">
-        <v>376</v>
-      </c>
+      <c r="I80" s="18"/>
       <c r="J80" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="K80" s="119"/>
-      <c r="L80" s="119"/>
+        <v>45</v>
+      </c>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
       <c r="M80" s="123" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(K80="","",IF(L80="","",IF(L80=K80,$N$1,L80-K80)))</f>
         <v/>
       </c>
     </row>
@@ -17798,21 +17913,19 @@
         <f ca="1">IF(B81="",IF(D81="","",IF(LEFT(D81)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D81" s="28"/>
+      <c r="D81" s="15"/>
       <c r="E81" s="29"/>
       <c r="F81" s="15"/>
       <c r="G81" s="107"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="K81" s="119"/>
-      <c r="L81" s="119"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
       <c r="M81" s="123" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(K81="","",IF(L81="","",IF(L81=K81,$N$1,L81-K81)))</f>
         <v/>
       </c>
     </row>
@@ -17831,16 +17944,12 @@
       <c r="F82" s="15"/>
       <c r="G82" s="107"/>
       <c r="H82" s="17"/>
-      <c r="I82" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>185</v>
-      </c>
+      <c r="I82" s="18"/>
+      <c r="J82" s="19"/>
       <c r="K82" s="119"/>
       <c r="L82" s="119"/>
       <c r="M82" s="123" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M82:M83" si="9">IF(K82="","",IF(L82="","",IF(L82=K82,$N$1,L82-K82)))</f>
         <v/>
       </c>
     </row>
@@ -17850,21 +17959,25 @@
         <v/>
       </c>
       <c r="B83" s="28"/>
-      <c r="C83" s="36" t="str">
+      <c r="C83" s="16" t="str">
         <f ca="1">IF(B83="",IF(D83="","",IF(LEFT(D83)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D83" s="135"/>
-      <c r="E83" s="110"/>
-      <c r="F83" s="110"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="136"/>
-      <c r="K83" s="121"/>
-      <c r="L83" s="121"/>
-      <c r="M83" s="125" t="str">
-        <f t="shared" si="8"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="K83" s="119"/>
+      <c r="L83" s="119"/>
+      <c r="M83" s="123" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -17873,38 +17986,27 @@
         <f ca="1">IF(B84="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="9">
+      <c r="B84" s="28"/>
+      <c r="C84" s="16" t="str">
         <f ca="1">IF(B84="",IF(D84="","",IF(LEFT(D84)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v>3</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="226" t="s">
-        <v>474</v>
-      </c>
-      <c r="F84" s="227" t="s">
-        <v>478</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H84" s="20"/>
-      <c r="I84" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J84" s="229" t="s">
-        <v>479</v>
-      </c>
-      <c r="K84" s="120"/>
-      <c r="L84" s="120"/>
-      <c r="M84" s="124" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O84" s="148" t="s">
-        <v>434</v>
+        <v/>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="107"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="K84" s="119"/>
+      <c r="L84" s="119"/>
+      <c r="M84" s="123" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -17912,30 +18014,27 @@
         <f ca="1">IF(B85="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="16" t="str">
         <f ca="1">IF(B85="",IF(D85="","",IF(LEFT(D85)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D85" s="15"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="107"/>
       <c r="H85" s="17"/>
       <c r="I85" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J85" s="161" t="s">
-        <v>480</v>
+        <v>182</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="K85" s="119"/>
       <c r="L85" s="119"/>
       <c r="M85" s="123" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O85" s="148" t="s">
-        <v>434</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -17943,26 +18042,22 @@
         <f ca="1">IF(B86="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="16" t="str">
+      <c r="B86" s="28"/>
+      <c r="C86" s="36" t="str">
         <f ca="1">IF(B86="",IF(D86="","",IF(LEFT(D86)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K86" s="119"/>
-      <c r="L86" s="119"/>
-      <c r="M86" s="123" t="str">
-        <f t="shared" si="0"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="113"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="136"/>
+      <c r="K86" s="121"/>
+      <c r="L86" s="121"/>
+      <c r="M86" s="125" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -17972,22 +18067,37 @@
         <v/>
       </c>
       <c r="B87" s="15"/>
-      <c r="C87" s="16" t="str">
+      <c r="C87" s="9">
         <f ca="1">IF(B87="",IF(D87="","",IF(LEFT(D87)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v/>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="119"/>
-      <c r="L87" s="119"/>
-      <c r="M87" s="123" t="str">
+        <v>3</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="K87" s="120"/>
+      <c r="L87" s="120"/>
+      <c r="M87" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="O87" s="148" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -18005,15 +18115,20 @@
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="22" t="s">
-        <v>177</v>
+      <c r="I88" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" s="32" t="s">
+        <v>476</v>
       </c>
       <c r="K88" s="119"/>
       <c r="L88" s="119"/>
       <c r="M88" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="O88" s="148" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -18031,12 +18146,16 @@
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="32"/>
+      <c r="I89" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="K89" s="119"/>
       <c r="L89" s="119"/>
       <c r="M89" s="123" t="str">
-        <f t="shared" ref="M89" si="10">IF(K89="","",IF(L89="","",IF(L89=K89,$N$1,L89-K89)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -18045,49 +18164,123 @@
         <f ca="1">IF(B90="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="9">
+      <c r="B90" s="15"/>
+      <c r="C90" s="16" t="str">
         <f ca="1">IF(B90="",IF(D90="","",IF(LEFT(D90)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
+        <v/>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="108"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="15" t="str">
+        <f ca="1">IF(B91="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
+        <v/>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="16" t="str">
+        <f ca="1">IF(B91="",IF(D91="","",IF(LEFT(D91)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
+        <v/>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="15" t="str">
+        <f ca="1">IF(B92="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
+        <v/>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="16" t="str">
+        <f ca="1">IF(B92="",IF(D92="","",IF(LEFT(D92)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
+        <v/>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="119"/>
+      <c r="L92" s="119"/>
+      <c r="M92" s="123" t="str">
+        <f t="shared" ref="M92" si="10">IF(K92="","",IF(L92="","",IF(L92=K92,$N$1,L92-K92)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="15" t="str">
+        <f ca="1">IF(B93="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
+        <v/>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="C93" s="9">
+        <f ca="1">IF(B93="",IF(D93="","",IF(LEFT(D93)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v>4</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D93" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="38"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="124" t="str">
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="23" t="str">
-        <f ca="1">IF(B91="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
-        <v/>
-      </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="36" t="str">
-        <f ca="1">IF(B91="",IF(D91="","",IF(LEFT(D91)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
-        <v/>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="110"/>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="109"/>
-      <c r="L91" s="109"/>
-      <c r="M91" s="125" t="str">
+    <row r="94" spans="1:15">
+      <c r="A94" s="23" t="str">
+        <f ca="1">IF(B94="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
+        <v/>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="C94" s="36" t="str">
+        <f ca="1">IF(B94="",IF(D94="","",IF(LEFT(D94)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
+        <v/>
+      </c>
+      <c r="D94" s="23"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="109"/>
+      <c r="L94" s="109"/>
+      <c r="M94" s="125" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18107,15 +18300,15 @@
   </sheetPr>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="114" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="114" customWidth="1"/>
@@ -18130,7 +18323,9 @@
     <col min="11" max="12" width="14.125" style="114" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="114" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="114" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="114"/>
+    <col min="15" max="15" width="9" style="114"/>
+    <col min="16" max="16" width="9" style="237"/>
+    <col min="17" max="16384" width="9" style="114"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -18185,7 +18380,7 @@
     </row>
     <row r="3" spans="1:16" s="148" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="151" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
@@ -18199,6 +18394,7 @@
       <c r="K3" s="149"/>
       <c r="L3" s="149"/>
       <c r="M3" s="150"/>
+      <c r="P3" s="238"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="7">
@@ -18206,20 +18402,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">IF(B4="",IF(D4="","",IF(LEFT(D4)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="210">
@@ -18227,7 +18423,7 @@
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K4" s="13">
         <v>43296.00277777778</v>
@@ -18257,7 +18453,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K5" s="112"/>
       <c r="L5" s="112"/>
@@ -18283,7 +18479,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
@@ -18327,16 +18523,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="226" t="s">
-        <v>482</v>
-      </c>
-      <c r="F8" s="226" t="s">
-        <v>435</v>
+        <v>250</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>431</v>
       </c>
       <c r="G8" s="177" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
@@ -18344,8 +18540,8 @@
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="233" t="s">
-        <v>505</v>
+      <c r="J8" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K8" s="120">
         <v>43296.004166666666</v>
@@ -18358,10 +18554,10 @@
         <v>6.944444467080757E-4</v>
       </c>
       <c r="O8" s="114" t="s">
-        <v>436</v>
-      </c>
-      <c r="P8" s="230" t="s">
-        <v>484</v>
+        <v>432</v>
+      </c>
+      <c r="P8" s="237" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -18383,7 +18579,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
@@ -18392,7 +18588,7 @@
         <v/>
       </c>
       <c r="O9" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18412,7 +18608,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
       <c r="J10" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
@@ -18421,7 +18617,7 @@
         <v/>
       </c>
       <c r="O10" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18467,7 +18663,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K12" s="119"/>
       <c r="L12" s="119"/>
@@ -18495,7 +18691,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K13" s="119"/>
       <c r="L13" s="119"/>
@@ -18523,7 +18719,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K14" s="119"/>
       <c r="L14" s="119"/>
@@ -18567,23 +18763,23 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="226" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16" s="227" t="s">
-        <v>472</v>
+        <v>252</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="20">
         <v>2</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="229" t="s">
-        <v>483</v>
+      <c r="J16" s="74" t="s">
+        <v>479</v>
       </c>
       <c r="K16" s="120">
         <v>43296.004861111112</v>
@@ -18596,10 +18792,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="O16" s="114" t="s">
-        <v>436</v>
-      </c>
-      <c r="P16" s="230" t="s">
-        <v>485</v>
+        <v>432</v>
+      </c>
+      <c r="P16" s="237" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -18619,7 +18815,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
       <c r="J17" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K17" s="119"/>
       <c r="L17" s="119"/>
@@ -18645,7 +18841,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K18" s="119"/>
       <c r="L18" s="119"/>
@@ -18689,23 +18885,23 @@
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" s="226" t="s">
-        <v>482</v>
-      </c>
-      <c r="F20" s="226" t="s">
-        <v>435</v>
+        <v>239</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>431</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H20" s="20">
         <v>1</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K20" s="120">
         <v>43296.004861111112</v>
@@ -18718,10 +18914,10 @@
         <v>2.7777777795563452E-3</v>
       </c>
       <c r="O20" s="114" t="s">
-        <v>436</v>
-      </c>
-      <c r="P20" s="230" t="s">
-        <v>484</v>
+        <v>432</v>
+      </c>
+      <c r="P20" s="237" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -18741,7 +18937,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
       <c r="J21" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K21" s="119"/>
       <c r="L21" s="119"/>
@@ -18749,8 +18945,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P21" s="230" t="s">
-        <v>486</v>
+      <c r="P21" s="237" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -18770,7 +18966,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
       <c r="J22" s="132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K22" s="119"/>
       <c r="L22" s="119"/>
@@ -18809,7 +19005,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="188">
         <f ca="1">IF(B24="",IF(D24="","",IF(LEFT(D24)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
@@ -18818,19 +19014,19 @@
       <c r="D24" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="231" t="s">
-        <v>439</v>
+      <c r="E24" s="184" t="s">
+        <v>435</v>
       </c>
       <c r="F24" s="184" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G24" s="183" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H24" s="190"/>
       <c r="I24" s="11"/>
       <c r="J24" s="185" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K24" s="193"/>
       <c r="L24" s="193"/>
@@ -18839,7 +19035,7 @@
         <v/>
       </c>
       <c r="O24" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -18853,7 +19049,7 @@
         <v/>
       </c>
       <c r="D25" s="186" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E25" s="186"/>
       <c r="F25" s="186"/>
@@ -18861,7 +19057,7 @@
       <c r="H25" s="191"/>
       <c r="I25" s="18"/>
       <c r="J25" s="187" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K25" s="194"/>
       <c r="L25" s="194"/>
@@ -18887,7 +19083,7 @@
       <c r="H26" s="191"/>
       <c r="I26" s="18"/>
       <c r="J26" s="187" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K26" s="194"/>
       <c r="L26" s="194"/>
@@ -18913,7 +19109,7 @@
       <c r="H27" s="191"/>
       <c r="I27" s="18"/>
       <c r="J27" s="187" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K27" s="194"/>
       <c r="L27" s="194"/>
@@ -18957,16 +19153,16 @@
         <v>2</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="226" t="s">
-        <v>482</v>
-      </c>
-      <c r="F29" s="226" t="s">
-        <v>435</v>
+        <v>177</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>431</v>
       </c>
       <c r="G29" s="177" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H29" s="210">
         <v>6</v>
@@ -18974,8 +19170,8 @@
       <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="233" t="s">
-        <v>505</v>
+      <c r="J29" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K29" s="118">
         <v>43296.007638888892</v>
@@ -18988,10 +19184,10 @@
         <v>4.8611111051286571E-3</v>
       </c>
       <c r="O29" s="114" t="s">
-        <v>436</v>
-      </c>
-      <c r="P29" s="230" t="s">
-        <v>484</v>
+        <v>432</v>
+      </c>
+      <c r="P29" s="237" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -19005,7 +19201,7 @@
         <v/>
       </c>
       <c r="D30" s="28" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
@@ -19015,7 +19211,7 @@
         <v>16</v>
       </c>
       <c r="J30" s="176" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K30" s="119"/>
       <c r="L30" s="119"/>
@@ -19024,7 +19220,7 @@
         <v/>
       </c>
       <c r="O30" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -19037,8 +19233,8 @@
         <f ca="1">IF(B31="",IF(D31="","",IF(LEFT(D31)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v/>
       </c>
-      <c r="D31" s="234" t="s">
-        <v>507</v>
+      <c r="D31" s="28" t="s">
+        <v>502</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -19046,7 +19242,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
       <c r="J31" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K31" s="119"/>
       <c r="L31" s="119"/>
@@ -19055,7 +19251,7 @@
         <v/>
       </c>
       <c r="O31" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -19069,17 +19265,17 @@
         <v/>
       </c>
       <c r="D32" s="28" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="G32" s="178"/>
       <c r="H32" s="17"/>
       <c r="I32" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K32" s="119"/>
       <c r="L32" s="119"/>
@@ -19088,7 +19284,7 @@
         <v/>
       </c>
       <c r="O32" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -19102,7 +19298,7 @@
         <v/>
       </c>
       <c r="D33" s="28" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="15"/>
@@ -19110,7 +19306,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
       <c r="J33" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K33" s="119"/>
       <c r="L33" s="119"/>
@@ -19119,7 +19315,7 @@
         <v/>
       </c>
       <c r="O33" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -19133,7 +19329,7 @@
         <v/>
       </c>
       <c r="D34" s="28" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="15"/>
@@ -19148,7 +19344,7 @@
         <v/>
       </c>
       <c r="O34" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -19167,10 +19363,10 @@
       <c r="G35" s="178"/>
       <c r="H35" s="17"/>
       <c r="I35" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K35" s="119"/>
       <c r="L35" s="119"/>
@@ -19250,7 +19446,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="18"/>
       <c r="J38" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
@@ -19299,10 +19495,10 @@
       <c r="G40" s="178"/>
       <c r="H40" s="17"/>
       <c r="I40" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K40" s="119"/>
       <c r="L40" s="119"/>
@@ -19327,10 +19523,10 @@
       <c r="G41" s="178"/>
       <c r="H41" s="17"/>
       <c r="I41" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="K41" s="119"/>
       <c r="L41" s="119"/>
@@ -19355,10 +19551,10 @@
       <c r="G42" s="178"/>
       <c r="H42" s="17"/>
       <c r="I42" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K42" s="119"/>
       <c r="L42" s="119"/>
@@ -19404,19 +19600,19 @@
       <c r="D44" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="231" t="s">
-        <v>441</v>
+      <c r="E44" s="184" t="s">
+        <v>437</v>
       </c>
       <c r="F44" s="184" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G44" s="183" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H44" s="191"/>
       <c r="I44" s="11"/>
       <c r="J44" s="185" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K44" s="193"/>
       <c r="L44" s="193"/>
@@ -19425,7 +19621,7 @@
         <v/>
       </c>
       <c r="O44" s="114" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -19445,7 +19641,7 @@
       <c r="H45" s="191"/>
       <c r="I45" s="18"/>
       <c r="J45" s="187" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K45" s="194"/>
       <c r="L45" s="194"/>
@@ -19471,7 +19667,7 @@
       <c r="H46" s="191"/>
       <c r="I46" s="18"/>
       <c r="J46" s="187" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K46" s="194"/>
       <c r="L46" s="194"/>
@@ -19497,7 +19693,7 @@
       <c r="H47" s="191"/>
       <c r="I47" s="18"/>
       <c r="J47" s="187" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K47" s="194"/>
       <c r="L47" s="194"/>
@@ -19541,21 +19737,21 @@
         <v>4</v>
       </c>
       <c r="D49" s="183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E49" s="184" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F49" s="184" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G49" s="183" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H49" s="211"/>
       <c r="I49" s="11"/>
       <c r="J49" s="185" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K49" s="193"/>
       <c r="L49" s="193"/>
@@ -19608,15 +19804,15 @@
   </sheetPr>
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="114" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="114" customWidth="1"/>
@@ -19631,10 +19827,12 @@
     <col min="11" max="12" width="14.125" style="114" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="114" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="114" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="114"/>
+    <col min="15" max="15" width="9" style="114"/>
+    <col min="16" max="16" width="9" style="237"/>
+    <col min="17" max="16384" width="9" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="K1" s="115"/>
       <c r="L1" s="115"/>
       <c r="M1" s="116">
@@ -19645,7 +19843,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="31.5">
+    <row r="2" spans="1:16" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -19684,9 +19882,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="148" customFormat="1" ht="24" customHeight="1">
+    <row r="3" spans="1:16" s="148" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="151" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
@@ -19700,33 +19898,34 @@
       <c r="K3" s="149"/>
       <c r="L3" s="149"/>
       <c r="M3" s="150"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="238"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="7">
         <f ca="1">IF(B4="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">IF(B4="",IF(D4="","",IF(LEFT(D4)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="210"/>
       <c r="I4" s="11"/>
       <c r="J4" s="132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
@@ -19735,7 +19934,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="15" t="str">
         <f ca="1">IF(B5="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19752,7 +19951,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K5" s="112"/>
       <c r="L5" s="112"/>
@@ -19761,7 +19960,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="15" t="str">
         <f ca="1">IF(B6="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19778,7 +19977,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
@@ -19787,7 +19986,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="15" t="str">
         <f ca="1">IF(B7="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19811,7 +20010,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="15" t="str">
         <f ca="1">IF(B8="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19822,16 +20021,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G8" s="179" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
@@ -19839,8 +20038,8 @@
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="233" t="s">
-        <v>505</v>
+      <c r="J8" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K8" s="120">
         <v>43296.107638888891</v>
@@ -19853,10 +20052,10 @@
         <v>1.3888888861401938E-3</v>
       </c>
       <c r="O8" s="114" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="15" t="str">
         <f ca="1">IF(B9="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19875,7 +20074,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="176" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
@@ -19884,10 +20083,10 @@
         <v/>
       </c>
       <c r="O9" s="114" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="15" t="str">
         <f ca="1">IF(B10="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19904,7 +20103,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
       <c r="J10" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
@@ -19913,10 +20112,10 @@
         <v/>
       </c>
       <c r="O10" s="114" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="15" t="str">
         <f ca="1">IF(B11="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19940,7 +20139,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="15" t="str">
         <f ca="1">IF(B12="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19959,7 +20158,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K12" s="119"/>
       <c r="L12" s="119"/>
@@ -19968,7 +20167,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="15" t="str">
         <f ca="1">IF(B13="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -19987,7 +20186,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K13" s="119"/>
       <c r="L13" s="119"/>
@@ -19996,7 +20195,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="15" t="str">
         <f ca="1">IF(B14="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -20015,7 +20214,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K14" s="119"/>
       <c r="L14" s="119"/>
@@ -20024,7 +20223,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="15" t="str">
         <f ca="1">IF(B15="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -20048,7 +20247,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="15" t="str">
         <f ca="1">IF(B16="","",MAX($A$1:INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)</f>
         <v/>
@@ -20060,13 +20259,13 @@
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G16" s="181" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H16" s="20">
         <v>1</v>
@@ -20074,8 +20273,8 @@
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="233" t="s">
-        <v>505</v>
+      <c r="J16" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K16" s="120">
         <v>43296.109027777777</v>
@@ -20088,7 +20287,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="O16" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -20110,7 +20309,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K17" s="119"/>
       <c r="L17" s="119"/>
@@ -20119,7 +20318,7 @@
         <v/>
       </c>
       <c r="O17" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -20139,7 +20338,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K18" s="119"/>
       <c r="L18" s="119"/>
@@ -20148,7 +20347,7 @@
         <v/>
       </c>
       <c r="O18" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -20194,7 +20393,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K20" s="119"/>
       <c r="L20" s="119"/>
@@ -20222,7 +20421,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K21" s="119"/>
       <c r="L21" s="119"/>
@@ -20250,7 +20449,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K22" s="119"/>
       <c r="L22" s="119"/>
@@ -20295,13 +20494,13 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="38" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G24" s="224" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H24" s="20">
         <v>1</v>
@@ -20309,8 +20508,8 @@
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="233" t="s">
-        <v>505</v>
+      <c r="J24" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K24" s="120"/>
       <c r="L24" s="120"/>
@@ -20319,7 +20518,7 @@
         <v/>
       </c>
       <c r="O24" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -20341,7 +20540,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K25" s="119"/>
       <c r="L25" s="119"/>
@@ -20350,7 +20549,7 @@
         <v/>
       </c>
       <c r="O25" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -20370,7 +20569,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
       <c r="J26" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K26" s="119"/>
       <c r="L26" s="119"/>
@@ -20379,7 +20578,7 @@
         <v/>
       </c>
       <c r="O26" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -20425,7 +20624,7 @@
         <v>16</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K28" s="119"/>
       <c r="L28" s="119"/>
@@ -20453,7 +20652,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K29" s="119"/>
       <c r="L29" s="119"/>
@@ -20481,7 +20680,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K30" s="119"/>
       <c r="L30" s="119"/>
@@ -20526,13 +20725,13 @@
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="38" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G32" s="222" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H32" s="20">
         <v>1</v>
@@ -20540,8 +20739,8 @@
       <c r="I32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="233" t="s">
-        <v>505</v>
+      <c r="J32" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K32" s="120"/>
       <c r="L32" s="120"/>
@@ -20550,7 +20749,7 @@
         <v/>
       </c>
       <c r="O32" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -20572,7 +20771,7 @@
         <v>16</v>
       </c>
       <c r="J33" s="176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K33" s="119"/>
       <c r="L33" s="119"/>
@@ -20581,7 +20780,7 @@
         <v/>
       </c>
       <c r="O33" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -20601,7 +20800,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
       <c r="J34" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K34" s="119"/>
       <c r="L34" s="119"/>
@@ -20610,7 +20809,7 @@
         <v/>
       </c>
       <c r="O34" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -20656,7 +20855,7 @@
         <v>16</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K36" s="119"/>
       <c r="L36" s="119"/>
@@ -20684,7 +20883,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K37" s="119"/>
       <c r="L37" s="119"/>
@@ -20712,7 +20911,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K38" s="119"/>
       <c r="L38" s="119"/>
@@ -20756,21 +20955,21 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E40" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="G40" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="11"/>
       <c r="J40" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K40" s="120"/>
       <c r="L40" s="120"/>
@@ -20796,7 +20995,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="18"/>
       <c r="J41" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K41" s="119"/>
       <c r="L41" s="119"/>
@@ -20822,7 +21021,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="18"/>
       <c r="J42" s="132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K42" s="119"/>
       <c r="L42" s="119"/>
@@ -20866,23 +21065,23 @@
         <v>4</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H44" s="20">
         <v>2</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K44" s="120">
         <v>43296.109722222223</v>
@@ -20895,10 +21094,10 @@
         <v>1.3888888861401938E-3</v>
       </c>
       <c r="O44" s="114" t="s">
-        <v>442</v>
-      </c>
-      <c r="P44" s="230" t="s">
-        <v>487</v>
+        <v>438</v>
+      </c>
+      <c r="P44" s="237" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -20913,14 +21112,14 @@
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="17"/>
       <c r="I45" s="18"/>
       <c r="J45" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K45" s="119"/>
       <c r="L45" s="119"/>
@@ -20929,7 +21128,7 @@
         <v/>
       </c>
       <c r="O45" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -20944,14 +21143,14 @@
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="29" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="H46" s="17"/>
       <c r="I46" s="18"/>
       <c r="J46" s="132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K46" s="119"/>
       <c r="L46" s="119"/>
@@ -20960,7 +21159,7 @@
         <v/>
       </c>
       <c r="O46" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -20969,7 +21168,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="15"/>
       <c r="E47" s="29" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
@@ -20980,7 +21179,7 @@
       <c r="L47" s="119"/>
       <c r="M47" s="123"/>
       <c r="O47" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -21013,7 +21212,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C49" s="188">
         <f ca="1">IF(B49="",IF(D49="","",IF(LEFT(D49)="※","",MAX(INDIRECT(ADDRESS(MATCH(MAX($A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),$A$1:INDIRECT(ADDRESS(ROW(),COLUMN()-2,1))),COLUMN(),1)):INDIRECT(ADDRESS(ROW()-1,COLUMN(),1)))+1)),1)</f>
@@ -21023,18 +21222,18 @@
         <v>31</v>
       </c>
       <c r="E49" s="184" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F49" s="184" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G49" s="183" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H49" s="190"/>
       <c r="I49" s="11"/>
       <c r="J49" s="185" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K49" s="193"/>
       <c r="L49" s="193"/>
@@ -21043,7 +21242,7 @@
         <v/>
       </c>
       <c r="O49" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -21057,7 +21256,7 @@
         <v/>
       </c>
       <c r="D50" s="186" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E50" s="186"/>
       <c r="F50" s="186"/>
@@ -21065,7 +21264,7 @@
       <c r="H50" s="191"/>
       <c r="I50" s="18"/>
       <c r="J50" s="187" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K50" s="194"/>
       <c r="L50" s="194"/>
@@ -21085,7 +21284,7 @@
         <v/>
       </c>
       <c r="D51" s="186" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E51" s="186"/>
       <c r="F51" s="186"/>
@@ -21093,7 +21292,7 @@
       <c r="H51" s="191"/>
       <c r="I51" s="18"/>
       <c r="J51" s="187" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K51" s="194"/>
       <c r="L51" s="194"/>
@@ -21119,7 +21318,7 @@
       <c r="H52" s="191"/>
       <c r="I52" s="18"/>
       <c r="J52" s="187" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K52" s="194"/>
       <c r="L52" s="194"/>
@@ -21139,13 +21338,13 @@
       <c r="H53" s="191"/>
       <c r="I53" s="18"/>
       <c r="J53" s="187" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K53" s="194"/>
       <c r="L53" s="194"/>
       <c r="M53" s="205"/>
       <c r="O53" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -21159,13 +21358,13 @@
       <c r="H54" s="191"/>
       <c r="I54" s="18"/>
       <c r="J54" s="187" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K54" s="194"/>
       <c r="L54" s="194"/>
       <c r="M54" s="205"/>
       <c r="O54" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -21227,16 +21426,16 @@
         <v>2</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G57" s="179" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H57" s="210">
         <v>6</v>
@@ -21244,8 +21443,8 @@
       <c r="I57" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="233" t="s">
-        <v>505</v>
+      <c r="J57" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K57" s="118">
         <v>43296.111111111109</v>
@@ -21258,7 +21457,7 @@
         <v>4.166666665696539E-3</v>
       </c>
       <c r="O57" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -21272,7 +21471,7 @@
         <v/>
       </c>
       <c r="D58" s="28" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -21282,7 +21481,7 @@
         <v>16</v>
       </c>
       <c r="J58" s="176" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K58" s="119"/>
       <c r="L58" s="119"/>
@@ -21291,7 +21490,7 @@
         <v/>
       </c>
       <c r="O58" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -21305,7 +21504,7 @@
         <v/>
       </c>
       <c r="D59" s="28" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="29"/>
@@ -21313,7 +21512,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="18"/>
       <c r="J59" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K59" s="119"/>
       <c r="L59" s="119"/>
@@ -21322,7 +21521,7 @@
         <v/>
       </c>
       <c r="O59" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -21336,17 +21535,17 @@
         <v/>
       </c>
       <c r="D60" s="28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
       <c r="G60" s="180"/>
       <c r="H60" s="17"/>
       <c r="I60" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K60" s="119"/>
       <c r="L60" s="119"/>
@@ -21355,7 +21554,7 @@
         <v/>
       </c>
       <c r="O60" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -21369,7 +21568,7 @@
         <v/>
       </c>
       <c r="D61" s="28" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="15"/>
@@ -21377,7 +21576,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="18"/>
       <c r="J61" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K61" s="119"/>
       <c r="L61" s="119"/>
@@ -21386,7 +21585,7 @@
         <v/>
       </c>
       <c r="O61" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -21429,10 +21628,10 @@
       <c r="G63" s="180"/>
       <c r="H63" s="17"/>
       <c r="I63" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J63" s="34" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K63" s="119"/>
       <c r="L63" s="119"/>
@@ -21512,7 +21711,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="18"/>
       <c r="J66" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="30"/>
@@ -21561,10 +21760,10 @@
       <c r="G68" s="180"/>
       <c r="H68" s="17"/>
       <c r="I68" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K68" s="119"/>
       <c r="L68" s="119"/>
@@ -21589,10 +21788,10 @@
       <c r="G69" s="180"/>
       <c r="H69" s="17"/>
       <c r="I69" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J69" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="K69" s="119"/>
       <c r="L69" s="119"/>
@@ -21617,10 +21816,10 @@
       <c r="G70" s="180"/>
       <c r="H70" s="17"/>
       <c r="I70" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K70" s="119"/>
       <c r="L70" s="119"/>
@@ -21665,13 +21864,13 @@
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G72" s="181" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H72" s="210">
         <v>6</v>
@@ -21679,8 +21878,8 @@
       <c r="I72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="233" t="s">
-        <v>505</v>
+      <c r="J72" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K72" s="118">
         <v>43296.115277777775</v>
@@ -21693,7 +21892,7 @@
         <v>3.4722222262644209E-3</v>
       </c>
       <c r="O72" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -21715,7 +21914,7 @@
         <v>16</v>
       </c>
       <c r="J73" s="176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K73" s="119"/>
       <c r="L73" s="119"/>
@@ -21724,7 +21923,7 @@
         <v/>
       </c>
       <c r="O73" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -21744,7 +21943,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="18"/>
       <c r="J74" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K74" s="119"/>
       <c r="L74" s="119"/>
@@ -21753,7 +21952,7 @@
         <v/>
       </c>
       <c r="O74" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -21772,10 +21971,10 @@
       <c r="G75" s="182"/>
       <c r="H75" s="17"/>
       <c r="I75" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K75" s="119"/>
       <c r="L75" s="119"/>
@@ -21801,7 +22000,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="18"/>
       <c r="J76" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K76" s="119"/>
       <c r="L76" s="119"/>
@@ -21850,10 +22049,10 @@
       <c r="G78" s="182"/>
       <c r="H78" s="17"/>
       <c r="I78" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J78" s="34" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K78" s="119"/>
       <c r="L78" s="119"/>
@@ -21933,7 +22132,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="18"/>
       <c r="J81" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="30"/>
@@ -21982,10 +22181,10 @@
       <c r="G83" s="182"/>
       <c r="H83" s="17"/>
       <c r="I83" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K83" s="119"/>
       <c r="L83" s="119"/>
@@ -22010,10 +22209,10 @@
       <c r="G84" s="182"/>
       <c r="H84" s="17"/>
       <c r="I84" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J84" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="K84" s="119"/>
       <c r="L84" s="119"/>
@@ -22038,10 +22237,10 @@
       <c r="G85" s="182"/>
       <c r="H85" s="17"/>
       <c r="I85" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K85" s="119"/>
       <c r="L85" s="119"/>
@@ -22086,13 +22285,13 @@
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="38" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G87" s="224" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H87" s="210">
         <v>6</v>
@@ -22100,8 +22299,8 @@
       <c r="I87" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="233" t="s">
-        <v>505</v>
+      <c r="J87" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K87" s="118"/>
       <c r="L87" s="118"/>
@@ -22110,7 +22309,7 @@
         <v/>
       </c>
       <c r="O87" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -22132,7 +22331,7 @@
         <v>16</v>
       </c>
       <c r="J88" s="176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K88" s="119"/>
       <c r="L88" s="119"/>
@@ -22141,7 +22340,7 @@
         <v/>
       </c>
       <c r="O88" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -22161,7 +22360,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="18"/>
       <c r="J89" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K89" s="119"/>
       <c r="L89" s="119"/>
@@ -22170,7 +22369,7 @@
         <v/>
       </c>
       <c r="O89" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -22192,7 +22391,7 @@
         <v>8</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K90" s="119"/>
       <c r="L90" s="119"/>
@@ -22201,7 +22400,7 @@
         <v/>
       </c>
       <c r="O90" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -22221,7 +22420,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="18"/>
       <c r="J91" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K91" s="119"/>
       <c r="L91" s="119"/>
@@ -22230,7 +22429,7 @@
         <v/>
       </c>
       <c r="O91" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -22257,7 +22456,7 @@
         <v/>
       </c>
       <c r="O92" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -22276,10 +22475,10 @@
       <c r="G93" s="225"/>
       <c r="H93" s="17"/>
       <c r="I93" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J93" s="34" t="s">
         <v>180</v>
-      </c>
-      <c r="J93" s="34" t="s">
-        <v>181</v>
       </c>
       <c r="K93" s="119"/>
       <c r="L93" s="119"/>
@@ -22288,7 +22487,7 @@
         <v/>
       </c>
       <c r="O93" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -22319,7 +22518,7 @@
         <v/>
       </c>
       <c r="O94" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1">
@@ -22348,7 +22547,7 @@
         <v/>
       </c>
       <c r="O95" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -22368,7 +22567,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="18"/>
       <c r="J96" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="30"/>
@@ -22377,7 +22576,7 @@
         <v/>
       </c>
       <c r="O96" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -22404,7 +22603,7 @@
         <v/>
       </c>
       <c r="O97" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -22426,7 +22625,7 @@
         <v>8</v>
       </c>
       <c r="J98" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K98" s="119"/>
       <c r="L98" s="119"/>
@@ -22435,7 +22634,7 @@
         <v/>
       </c>
       <c r="O98" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -22457,7 +22656,7 @@
         <v>8</v>
       </c>
       <c r="J99" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K99" s="119"/>
       <c r="L99" s="119"/>
@@ -22466,7 +22665,7 @@
         <v/>
       </c>
       <c r="O99" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -22488,7 +22687,7 @@
         <v>8</v>
       </c>
       <c r="J100" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K100" s="119"/>
       <c r="L100" s="119"/>
@@ -22497,7 +22696,7 @@
         <v/>
       </c>
       <c r="O100" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -22524,7 +22723,7 @@
         <v/>
       </c>
       <c r="O101" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -22539,13 +22738,13 @@
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="38" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G102" s="222" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H102" s="210">
         <v>6</v>
@@ -22553,8 +22752,8 @@
       <c r="I102" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="233" t="s">
-        <v>505</v>
+      <c r="J102" s="230" t="s">
+        <v>501</v>
       </c>
       <c r="K102" s="118"/>
       <c r="L102" s="118"/>
@@ -22563,7 +22762,7 @@
         <v/>
       </c>
       <c r="O102" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -22585,7 +22784,7 @@
         <v>16</v>
       </c>
       <c r="J103" s="176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K103" s="119"/>
       <c r="L103" s="119"/>
@@ -22594,7 +22793,7 @@
         <v/>
       </c>
       <c r="O103" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -22614,7 +22813,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="18"/>
       <c r="J104" s="176" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K104" s="119"/>
       <c r="L104" s="119"/>
@@ -22623,7 +22822,7 @@
         <v/>
       </c>
       <c r="O104" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -22645,7 +22844,7 @@
         <v>8</v>
       </c>
       <c r="J105" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K105" s="119"/>
       <c r="L105" s="119"/>
@@ -22654,7 +22853,7 @@
         <v/>
       </c>
       <c r="O105" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -22674,7 +22873,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="18"/>
       <c r="J106" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K106" s="119"/>
       <c r="L106" s="119"/>
@@ -22683,7 +22882,7 @@
         <v/>
       </c>
       <c r="O106" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -22710,7 +22909,7 @@
         <v/>
       </c>
       <c r="O107" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -22729,10 +22928,10 @@
       <c r="G108" s="223"/>
       <c r="H108" s="17"/>
       <c r="I108" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J108" s="34" t="s">
         <v>180</v>
-      </c>
-      <c r="J108" s="34" t="s">
-        <v>181</v>
       </c>
       <c r="K108" s="119"/>
       <c r="L108" s="119"/>
@@ -22741,7 +22940,7 @@
         <v/>
       </c>
       <c r="O108" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -22772,7 +22971,7 @@
         <v/>
       </c>
       <c r="O109" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1">
@@ -22801,7 +23000,7 @@
         <v/>
       </c>
       <c r="O110" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -22821,7 +23020,7 @@
       <c r="H111" s="17"/>
       <c r="I111" s="18"/>
       <c r="J111" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="30"/>
@@ -22830,7 +23029,7 @@
         <v/>
       </c>
       <c r="O111" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -22857,7 +23056,7 @@
         <v/>
       </c>
       <c r="O112" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -22879,7 +23078,7 @@
         <v>8</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K113" s="119"/>
       <c r="L113" s="119"/>
@@ -22888,7 +23087,7 @@
         <v/>
       </c>
       <c r="O113" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -22910,7 +23109,7 @@
         <v>8</v>
       </c>
       <c r="J114" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K114" s="119"/>
       <c r="L114" s="119"/>
@@ -22919,7 +23118,7 @@
         <v/>
       </c>
       <c r="O114" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -22941,7 +23140,7 @@
         <v>8</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K115" s="119"/>
       <c r="L115" s="119"/>
@@ -22950,7 +23149,7 @@
         <v/>
       </c>
       <c r="O115" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -22977,7 +23176,7 @@
         <v/>
       </c>
       <c r="O116" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -22994,18 +23193,18 @@
         <v>46</v>
       </c>
       <c r="E117" s="184" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F117" s="184" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G117" s="183" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H117" s="191"/>
       <c r="I117" s="11"/>
       <c r="J117" s="185" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K117" s="193"/>
       <c r="L117" s="193"/>
@@ -23025,7 +23224,7 @@
         <v/>
       </c>
       <c r="D118" s="186" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E118" s="186"/>
       <c r="F118" s="186"/>
@@ -23033,7 +23232,7 @@
       <c r="H118" s="191"/>
       <c r="I118" s="18"/>
       <c r="J118" s="187" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K118" s="194"/>
       <c r="L118" s="194"/>
@@ -23059,7 +23258,7 @@
       <c r="H119" s="191"/>
       <c r="I119" s="18"/>
       <c r="J119" s="187" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K119" s="194"/>
       <c r="L119" s="194"/>
@@ -23085,7 +23284,7 @@
       <c r="H120" s="191"/>
       <c r="I120" s="18"/>
       <c r="J120" s="187" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K120" s="194"/>
       <c r="L120" s="194"/>
@@ -23105,13 +23304,13 @@
       <c r="H121" s="191"/>
       <c r="I121" s="18"/>
       <c r="J121" s="187" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K121" s="194"/>
       <c r="L121" s="194"/>
       <c r="M121" s="205"/>
       <c r="O121" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -23125,13 +23324,13 @@
       <c r="H122" s="191"/>
       <c r="I122" s="18"/>
       <c r="J122" s="187" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K122" s="194"/>
       <c r="L122" s="194"/>
       <c r="M122" s="205"/>
       <c r="O122" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -23151,7 +23350,7 @@
       <c r="H123" s="191"/>
       <c r="I123" s="18"/>
       <c r="J123" s="187" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K123" s="194"/>
       <c r="L123" s="194"/>
@@ -23195,19 +23394,19 @@
         <v>4</v>
       </c>
       <c r="D125" s="183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E125" s="184" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F125" s="184"/>
       <c r="G125" s="183" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H125" s="211"/>
       <c r="I125" s="11"/>
       <c r="J125" s="185" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K125" s="193"/>
       <c r="L125" s="193"/>
@@ -23254,18 +23453,18 @@
         <v>31</v>
       </c>
       <c r="E127" s="184" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F127" s="184" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G127" s="183" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H127" s="190"/>
       <c r="I127" s="11"/>
       <c r="J127" s="185" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K127" s="193"/>
       <c r="L127" s="193"/>
@@ -23274,7 +23473,7 @@
         <v/>
       </c>
       <c r="O127" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -23288,7 +23487,7 @@
         <v/>
       </c>
       <c r="D128" s="186" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E128" s="186"/>
       <c r="F128" s="186"/>
@@ -23296,7 +23495,7 @@
       <c r="H128" s="191"/>
       <c r="I128" s="18"/>
       <c r="J128" s="187" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K128" s="194"/>
       <c r="L128" s="194"/>
@@ -23322,7 +23521,7 @@
       <c r="H129" s="191"/>
       <c r="I129" s="18"/>
       <c r="J129" s="187" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K129" s="194"/>
       <c r="L129" s="194"/>
@@ -23348,7 +23547,7 @@
       <c r="H130" s="191"/>
       <c r="I130" s="18"/>
       <c r="J130" s="187" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K130" s="194"/>
       <c r="L130" s="194"/>
@@ -23368,13 +23567,13 @@
       <c r="H131" s="191"/>
       <c r="I131" s="18"/>
       <c r="J131" s="187" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K131" s="194"/>
       <c r="L131" s="194"/>
       <c r="M131" s="205"/>
       <c r="O131" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -23388,13 +23587,13 @@
       <c r="H132" s="191"/>
       <c r="I132" s="18"/>
       <c r="J132" s="187" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K132" s="194"/>
       <c r="L132" s="194"/>
       <c r="M132" s="205"/>
       <c r="O132" s="114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -23429,7 +23628,7 @@
       <c r="H134" s="191"/>
       <c r="I134" s="18"/>
       <c r="J134" s="187" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K134" s="194"/>
       <c r="L134" s="194"/>
